--- a/UsersList.xlsx
+++ b/UsersList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,51 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>George Washinton</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Sarah Blakely</t>
+  </si>
+  <si>
+    <t>Karlie Kloss</t>
+  </si>
+  <si>
+    <t>Leonardo Dicaprio</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>Michael Townley</t>
+  </si>
+  <si>
+    <t>Aubrey Graham</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Iggy Azalea</t>
+  </si>
+  <si>
+    <t>Supreme Being</t>
   </si>
 </sst>
 </file>
@@ -417,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -477,6 +522,126 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/UsersList.xlsx
+++ b/UsersList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,108 @@
   </si>
   <si>
     <t>Supreme Being</t>
+  </si>
+  <si>
+    <t>jsmith</t>
+  </si>
+  <si>
+    <t>msmith</t>
+  </si>
+  <si>
+    <t>mr11j</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>fluffy</t>
+  </si>
+  <si>
+    <t>abby</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>blergh</t>
+  </si>
+  <si>
+    <t>llbean</t>
+  </si>
+  <si>
+    <t>firstprez</t>
+  </si>
+  <si>
+    <t>delaware</t>
+  </si>
+  <si>
+    <t>bmicro</t>
+  </si>
+  <si>
+    <t>melinda</t>
+  </si>
+  <si>
+    <t>sapple</t>
+  </si>
+  <si>
+    <t>blackturtleneck</t>
+  </si>
+  <si>
+    <t>fsusarah</t>
+  </si>
+  <si>
+    <t>spanx</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>leodicap</t>
+  </si>
+  <si>
+    <t>nooscar</t>
+  </si>
+  <si>
+    <t>heisenberg</t>
+  </si>
+  <si>
+    <t>bluesky</t>
+  </si>
+  <si>
+    <t>desanta</t>
+  </si>
+  <si>
+    <t>gta5</t>
+  </si>
+  <si>
+    <t>drake</t>
+  </si>
+  <si>
+    <t>nothingwasthesame</t>
+  </si>
+  <si>
+    <t>donglover</t>
+  </si>
+  <si>
+    <t>thedeepweb</t>
+  </si>
+  <si>
+    <t>iggy</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>omnicient</t>
   </si>
 </sst>
 </file>
@@ -465,14 +567,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,6 +596,12 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -502,6 +610,12 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -510,6 +624,12 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -526,6 +646,12 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -534,6 +660,12 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -542,6 +674,12 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -550,6 +688,12 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -558,6 +702,12 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -566,6 +716,12 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -574,6 +730,12 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -582,6 +744,12 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -590,6 +758,12 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -598,6 +772,12 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -606,6 +786,12 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -614,6 +800,12 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -622,6 +814,12 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -630,6 +828,12 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -637,6 +841,12 @@
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
